--- a/biology/Botanique/Cirsium_eriophorum/Cirsium_eriophorum.xlsx
+++ b/biology/Botanique/Cirsium_eriophorum/Cirsium_eriophorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium еriophorum
 Le Cirse laineux (Cirsium еriophorum) est une espèce de plante à fleurs appartenant au genre Cirsium et à la famille des Astéracées (ou Composées).
@@ -512,7 +524,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cirsium еriophorum var. еriophorum
 Cirsium еriophorum var. platyonychinum</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bisannuelle.
 			Début de floraison.
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cirse laineux est réparti sur une bonne partie de l'Europe. En France, on le trouve dans le Nord-Est, les Alpes, le Massif central et les Pyrénées, jusqu'à 2 100 m d'altitude.
 </t>
@@ -609,7 +627,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : capitule simple ou racème de capitules
